--- a/data/trans_orig/P36B13-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B13-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>95563</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>79533</v>
+        <v>80111</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>112328</v>
+        <v>112835</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3270763674058669</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2722095079092383</v>
+        <v>0.2741886845940802</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3844553006652655</v>
+        <v>0.386192432579367</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>95</v>
@@ -763,19 +763,19 @@
         <v>103983</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>87234</v>
+        <v>88611</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>121989</v>
+        <v>121641</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3601738368216266</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3021575097558113</v>
+        <v>0.3069264245252963</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4225398516598617</v>
+        <v>0.4213367039978617</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>185</v>
@@ -784,19 +784,19 @@
         <v>199546</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>176974</v>
+        <v>175777</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>222909</v>
+        <v>222858</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3435262132601938</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3046666636019494</v>
+        <v>0.3026055103364826</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3837462504128271</v>
+        <v>0.3836586315445765</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>66268</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>51698</v>
+        <v>53056</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>82280</v>
+        <v>81944</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2268115823658398</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1769426467133555</v>
+        <v>0.1815909203302193</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.28161239411784</v>
+        <v>0.2804637646993117</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>73</v>
@@ -834,19 +834,19 @@
         <v>76162</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>61689</v>
+        <v>60379</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>92908</v>
+        <v>92570</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2638063767359968</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2136773643534113</v>
+        <v>0.2091402811874686</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3218099977470411</v>
+        <v>0.3206409777177597</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>134</v>
@@ -855,19 +855,19 @@
         <v>142430</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>121353</v>
+        <v>122616</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>164052</v>
+        <v>165329</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2451984462422616</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2089128478602012</v>
+        <v>0.2110882108920582</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2824216281965493</v>
+        <v>0.2846200918415369</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>85780</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>69614</v>
+        <v>70240</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>103615</v>
+        <v>102314</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2935916233283304</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2382630543840283</v>
+        <v>0.2404062176334651</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3546355313181718</v>
+        <v>0.3501802914937311</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>68</v>
@@ -905,19 +905,19 @@
         <v>67606</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>54306</v>
+        <v>53083</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>83170</v>
+        <v>82086</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2341726171780964</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1881032959514125</v>
+        <v>0.1838672421034854</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2880818261136108</v>
+        <v>0.2843283652411785</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>142</v>
@@ -926,19 +926,19 @@
         <v>153386</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>131474</v>
+        <v>132291</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>174423</v>
+        <v>176072</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2640596527806595</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2263378035511143</v>
+        <v>0.2277437751649265</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3002744744860981</v>
+        <v>0.3031145134206781</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>35687</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24534</v>
+        <v>25066</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48788</v>
+        <v>47171</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1221417080659657</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08397047178596671</v>
+        <v>0.08579057619938395</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1669832111850806</v>
+        <v>0.1614486078504621</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -976,19 +976,19 @@
         <v>35256</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25449</v>
+        <v>25728</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47874</v>
+        <v>47878</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1221191248959787</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08814923903686338</v>
+        <v>0.08911522411506011</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1658242957534566</v>
+        <v>0.165838496301195</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>67</v>
@@ -997,19 +997,19 @@
         <v>70943</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>54941</v>
+        <v>54524</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>88910</v>
+        <v>89079</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1221304839551274</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09458217456496629</v>
+        <v>0.09386416088884093</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1530610777587953</v>
+        <v>0.1533524460632449</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>8876</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4149</v>
+        <v>3507</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17190</v>
+        <v>16980</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03037871883399718</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01420024435324811</v>
+        <v>0.01200469123994896</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05883323011174213</v>
+        <v>0.05811652681068597</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1047,19 +1047,19 @@
         <v>5696</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2593</v>
+        <v>2060</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12178</v>
+        <v>11527</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0197280443683014</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008981363753755717</v>
+        <v>0.007137037510235085</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04218163821078397</v>
+        <v>0.03992560100529181</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -1068,19 +1068,19 @@
         <v>14571</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7512</v>
+        <v>8091</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>23591</v>
+        <v>25270</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02508520376175762</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01293197227083463</v>
+        <v>0.01392892500291327</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04061207720691608</v>
+        <v>0.04350388817745475</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>124328</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>105850</v>
+        <v>103677</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>146623</v>
+        <v>145745</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2473810775872813</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.21061615427559</v>
+        <v>0.2062913093276707</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2917439846645287</v>
+        <v>0.2899962153892575</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>128</v>
@@ -1193,19 +1193,19 @@
         <v>148533</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>126874</v>
+        <v>128429</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>169450</v>
+        <v>169883</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2846892874264463</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2431770468070023</v>
+        <v>0.2461574994147868</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3247801714383254</v>
+        <v>0.3256097975785772</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>246</v>
@@ -1214,19 +1214,19 @@
         <v>272860</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>242323</v>
+        <v>245324</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>302484</v>
+        <v>303208</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2663841409903872</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2365712995691191</v>
+        <v>0.2395008252321268</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2953044830494581</v>
+        <v>0.2960118402722668</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>128832</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>109749</v>
+        <v>110337</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>149657</v>
+        <v>151399</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.256344116062825</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2183734862586355</v>
+        <v>0.219543117620058</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.297781274516296</v>
+        <v>0.3012460389490595</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>143</v>
@@ -1264,19 +1264,19 @@
         <v>154071</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>132930</v>
+        <v>131507</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>175691</v>
+        <v>174681</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2953034217697966</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2547839914519681</v>
+        <v>0.2520568457511734</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3367423183309953</v>
+        <v>0.3348066285168116</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>264</v>
@@ -1285,19 +1285,19 @@
         <v>282903</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>255322</v>
+        <v>256756</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>314318</v>
+        <v>311169</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2761881707543309</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2492616578277634</v>
+        <v>0.250662253716238</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3068581492344867</v>
+        <v>0.3037832373869154</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>181818</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>161228</v>
+        <v>160919</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>205461</v>
+        <v>202153</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3617727212660881</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3208047869137227</v>
+        <v>0.3201883622128802</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4088174373821576</v>
+        <v>0.4022340556986687</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>172</v>
@@ -1335,19 +1335,19 @@
         <v>179036</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>158726</v>
+        <v>156038</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>201477</v>
+        <v>202200</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.343154010633562</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3042268133105469</v>
+        <v>0.2990744984253328</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3861652314355284</v>
+        <v>0.3875515428102732</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>341</v>
@@ -1356,19 +1356,19 @@
         <v>360854</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>329288</v>
+        <v>332750</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>390520</v>
+        <v>392634</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.352289217764868</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3214724781237063</v>
+        <v>0.3248525800436418</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3812506176691446</v>
+        <v>0.3833152217967253</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>62407</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48090</v>
+        <v>48883</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>77282</v>
+        <v>78766</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1241740056730284</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0956866144772115</v>
+        <v>0.09726451055185477</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1537718153670962</v>
+        <v>0.1567242889202272</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -1406,19 +1406,19 @@
         <v>39112</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29051</v>
+        <v>27721</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51065</v>
+        <v>52114</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07496585274076152</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05568120120166613</v>
+        <v>0.05313217385235079</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09787585270071963</v>
+        <v>0.09988639939804056</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>101</v>
@@ -1427,19 +1427,19 @@
         <v>101519</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>81281</v>
+        <v>82787</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>120761</v>
+        <v>120074</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09910966583595707</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0793515603627077</v>
+        <v>0.08082165444185148</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1178943006744334</v>
+        <v>0.1172236074289351</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>5191</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2028</v>
+        <v>2048</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11555</v>
+        <v>12508</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01032807941077718</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00403510320466063</v>
+        <v>0.004074450490186321</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02299218624298786</v>
+        <v>0.0248874810964619</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4927</v>
+        <v>4411</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001887427429433566</v>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009442677001383395</v>
+        <v>0.008455178421487922</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -1498,19 +1498,19 @@
         <v>6175</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2973</v>
+        <v>2095</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12509</v>
+        <v>12350</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006028804654456836</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002902332976279051</v>
+        <v>0.002044915892135387</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01221232931804448</v>
+        <v>0.01205641140442118</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>57750</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45166</v>
+        <v>46516</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>71743</v>
+        <v>72360</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1829622950461218</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1430925205414721</v>
+        <v>0.147370830647037</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2272933721060015</v>
+        <v>0.2292485486720617</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>95</v>
@@ -1623,19 +1623,19 @@
         <v>103245</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>85025</v>
+        <v>86436</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>121150</v>
+        <v>119051</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.306995126085739</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2528191988951149</v>
+        <v>0.2570138488486887</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3602337095292885</v>
+        <v>0.3539924178501246</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>159</v>
@@ -1644,19 +1644,19 @@
         <v>160995</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>139988</v>
+        <v>140227</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>183757</v>
+        <v>183472</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2469449230382351</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2147233318506354</v>
+        <v>0.2150889191080942</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2818582342199024</v>
+        <v>0.2814210843168395</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>101272</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>86641</v>
+        <v>84689</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>119277</v>
+        <v>117558</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3208483146062842</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2744946221959194</v>
+        <v>0.2683101770316545</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3778902750036598</v>
+        <v>0.3724443913940154</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>115</v>
@@ -1694,19 +1694,19 @@
         <v>117625</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>97926</v>
+        <v>100395</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>135093</v>
+        <v>135462</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3497540858100514</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2911786307286556</v>
+        <v>0.298520997042694</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4016916073670465</v>
+        <v>0.4027914273783776</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>220</v>
@@ -1715,19 +1715,19 @@
         <v>218898</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>196773</v>
+        <v>196078</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>243673</v>
+        <v>244034</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.33575942475554</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3018225685917903</v>
+        <v>0.3007564680391887</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3737616833485433</v>
+        <v>0.3743153356401993</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>95951</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>80922</v>
+        <v>81023</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>111827</v>
+        <v>112086</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3039898265815245</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2563763073176615</v>
+        <v>0.2566956542127137</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3542891964482083</v>
+        <v>0.3551069118518076</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>86</v>
@@ -1765,19 +1765,19 @@
         <v>81485</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>68380</v>
+        <v>66921</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>99329</v>
+        <v>97547</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2422928026284566</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2033234593376954</v>
+        <v>0.1989874557419371</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2953514817297272</v>
+        <v>0.2900529391624545</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>185</v>
@@ -1786,19 +1786,19 @@
         <v>177436</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>153966</v>
+        <v>155799</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>199286</v>
+        <v>201463</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.272163271477346</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2361627471451136</v>
+        <v>0.2389747431419221</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3056775605303431</v>
+        <v>0.3090175952324457</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>49255</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37974</v>
+        <v>36641</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>61649</v>
+        <v>62377</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1560490137110298</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1203068646350911</v>
+        <v>0.1160853231646603</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1953160056480313</v>
+        <v>0.1976198713032616</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -1836,19 +1836,19 @@
         <v>31046</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20952</v>
+        <v>20941</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42903</v>
+        <v>42284</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09231425356145986</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06229858060986895</v>
+        <v>0.06226811509841614</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1275703278743532</v>
+        <v>0.1257294794487755</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>85</v>
@@ -1857,19 +1857,19 @@
         <v>80301</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>65316</v>
+        <v>65667</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>97808</v>
+        <v>98546</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1231712875909675</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1001859892988719</v>
+        <v>0.1007246209743762</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1500239974698452</v>
+        <v>0.1511562364892992</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>11411</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6520</v>
+        <v>6487</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20096</v>
+        <v>20314</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03615055005503968</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0206551700144933</v>
+        <v>0.02055304216013654</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06366861570311762</v>
+        <v>0.06435863555297584</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1907,19 +1907,19 @@
         <v>2907</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8669</v>
+        <v>7982</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008643731914293101</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002634027188658072</v>
+        <v>0.002619638751757361</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02577749424921578</v>
+        <v>0.02373277240278692</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -1928,19 +1928,19 @@
         <v>14317</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8455</v>
+        <v>8513</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>23047</v>
+        <v>22623</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02196109313791138</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01296947959235073</v>
+        <v>0.01305735143272594</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03535046604397465</v>
+        <v>0.03470008591335126</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>126311</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>108940</v>
+        <v>108819</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>147391</v>
+        <v>146672</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3422444259664769</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2951772689553265</v>
+        <v>0.2948496671708355</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3993624937056092</v>
+        <v>0.3974138240478025</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>146</v>
@@ -2053,19 +2053,19 @@
         <v>163383</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>144198</v>
+        <v>144325</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>183445</v>
+        <v>182856</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.426721059909686</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3766118770755759</v>
+        <v>0.376943740510758</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4791175291333578</v>
+        <v>0.477579073802256</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>270</v>
@@ -2074,19 +2074,19 @@
         <v>289694</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>264690</v>
+        <v>265373</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>317776</v>
+        <v>319865</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3852587872444347</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3520058203011273</v>
+        <v>0.352914971551401</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.422603864657798</v>
+        <v>0.4253820594824148</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>79130</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>64243</v>
+        <v>65266</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>96809</v>
+        <v>96796</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2144065940592072</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1740693098122024</v>
+        <v>0.1768399745395907</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2623072249916275</v>
+        <v>0.2622715996168358</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>84</v>
@@ -2124,19 +2124,19 @@
         <v>90215</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>74124</v>
+        <v>74547</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>108965</v>
+        <v>108692</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2356208038714884</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1935959257927487</v>
+        <v>0.1946996976604196</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2845915747568002</v>
+        <v>0.283878455803998</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>158</v>
@@ -2145,19 +2145,19 @@
         <v>169345</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>147458</v>
+        <v>146383</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>194669</v>
+        <v>193143</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.225208583230619</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1961010355948271</v>
+        <v>0.1946713021800814</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.258886674908724</v>
+        <v>0.2568570242805477</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>117129</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>100039</v>
+        <v>99508</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>135907</v>
+        <v>136132</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3173654758867497</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2710601328245216</v>
+        <v>0.2696215786088073</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3682465588995162</v>
+        <v>0.3688566861163561</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>104</v>
@@ -2195,19 +2195,19 @@
         <v>107348</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>91982</v>
+        <v>90867</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>127282</v>
+        <v>125909</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2803682333974591</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2402358270045254</v>
+        <v>0.2373231883863451</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.332432455269411</v>
+        <v>0.328846959876562</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>215</v>
@@ -2216,19 +2216,19 @@
         <v>224476</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>196985</v>
+        <v>199854</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>248565</v>
+        <v>249246</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2985269796015828</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2619669009920761</v>
+        <v>0.2657815171859469</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3305617893154146</v>
+        <v>0.3314681005363974</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>38040</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27795</v>
+        <v>26799</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>51466</v>
+        <v>50432</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1030713161427244</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0753104266701551</v>
+        <v>0.07261306607103876</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1394495643111397</v>
+        <v>0.1366470592313325</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -2266,19 +2266,19 @@
         <v>18257</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10848</v>
+        <v>11465</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27357</v>
+        <v>28842</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04768414605609116</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02833300502667543</v>
+        <v>0.0299448963433133</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07145044182755265</v>
+        <v>0.07532802036309104</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>54</v>
@@ -2287,19 +2287,19 @@
         <v>56297</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>42638</v>
+        <v>43078</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>72995</v>
+        <v>73681</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07486891705244127</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05670305607750652</v>
+        <v>0.05728794895842606</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0970743677294256</v>
+        <v>0.0979872250648255</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>8456</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3922</v>
+        <v>3948</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16848</v>
+        <v>16940</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02291218794484173</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01062673983136437</v>
+        <v>0.01069788864516369</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04565123821876763</v>
+        <v>0.04590032416118877</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2337,19 +2337,19 @@
         <v>3678</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10033</v>
+        <v>11289</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.009605756765275352</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002693138807476066</v>
+        <v>0.002706572668018477</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02620386339493461</v>
+        <v>0.02948321022190603</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -2358,19 +2358,19 @@
         <v>12134</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6269</v>
+        <v>6341</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>21930</v>
+        <v>21694</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01613673287092229</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008336826640420002</v>
+        <v>0.0084327465820721</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02916468364175506</v>
+        <v>0.02885041088293522</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>64665</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>52415</v>
+        <v>52809</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>77997</v>
+        <v>80031</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.307701045917313</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2494128438539626</v>
+        <v>0.2512865432328093</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3711402522213451</v>
+        <v>0.3808204306790449</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>80</v>
@@ -2483,19 +2483,19 @@
         <v>80448</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>66861</v>
+        <v>67259</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>94373</v>
+        <v>96143</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3695721770278085</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3071568029113398</v>
+        <v>0.3089830487445565</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4335417472316276</v>
+        <v>0.441676036256143</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>146</v>
@@ -2504,19 +2504,19 @@
         <v>145113</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>127154</v>
+        <v>126140</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>165820</v>
+        <v>162486</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3391805572442731</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2972042556017091</v>
+        <v>0.2948353081950594</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3875822396555276</v>
+        <v>0.3797881049103423</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>76468</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>61896</v>
+        <v>62656</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>89605</v>
+        <v>91275</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3638636348990164</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2945278150373812</v>
+        <v>0.2981410246820674</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.426374737463907</v>
+        <v>0.4343222400272712</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>83</v>
@@ -2554,19 +2554,19 @@
         <v>82841</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>68738</v>
+        <v>69407</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>96596</v>
+        <v>97947</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3805657397110091</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.315779720526239</v>
+        <v>0.3188500099778148</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4437541163901196</v>
+        <v>0.4499609021995807</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>160</v>
@@ -2575,19 +2575,19 @@
         <v>159309</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>139119</v>
+        <v>139635</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>179625</v>
+        <v>179113</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3723615254042703</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.325170334815178</v>
+        <v>0.3263775942508932</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4198487106113427</v>
+        <v>0.418652194552896</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>49100</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>37814</v>
+        <v>37226</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>62279</v>
+        <v>61996</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2336374519071487</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1799341321402047</v>
+        <v>0.177136877843023</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2963490246017636</v>
+        <v>0.2950019819708937</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>48</v>
@@ -2625,19 +2625,19 @@
         <v>43972</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>33270</v>
+        <v>34261</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>57553</v>
+        <v>55205</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2020031958036403</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1528420516987115</v>
+        <v>0.157392799547756</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.264396387906041</v>
+        <v>0.2536075066060353</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>96</v>
@@ -2646,19 +2646,19 @@
         <v>93072</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>78606</v>
+        <v>77521</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>112205</v>
+        <v>111315</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2175422083669603</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1837306261488353</v>
+        <v>0.1811945262621512</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2622646707555165</v>
+        <v>0.2601834687748705</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>18930</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>11785</v>
+        <v>12503</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>28428</v>
+        <v>29459</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.09007472997828522</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05607937197578212</v>
+        <v>0.05949472877958434</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1352704352727361</v>
+        <v>0.1401771463569979</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>10</v>
@@ -2696,19 +2696,19 @@
         <v>9504</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4585</v>
+        <v>4577</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>16627</v>
+        <v>16573</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04365917862499031</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02106448390903632</v>
+        <v>0.02102468494181213</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07638346939014962</v>
+        <v>0.07613541324630559</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>29</v>
@@ -2717,19 +2717,19 @@
         <v>28433</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>19378</v>
+        <v>20142</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>40573</v>
+        <v>39508</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06645888768887079</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04529450981582495</v>
+        <v>0.04707848066338164</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09483469555617416</v>
+        <v>0.0923453318214891</v>
       </c>
     </row>
     <row r="32">
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5025</v>
+        <v>5975</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.004723137298236692</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02390946852046926</v>
+        <v>0.02843279724767905</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4477</v>
+        <v>4849</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.004199708832551779</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0205689768379238</v>
+        <v>0.02227383062060028</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5816</v>
+        <v>6562</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.004456821295625477</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0135947761787776</v>
+        <v>0.01533792332616235</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>107271</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>91341</v>
+        <v>92323</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>123902</v>
+        <v>123514</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4076837733811405</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3471417230880673</v>
+        <v>0.3508724048205691</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4708889900227983</v>
+        <v>0.469416014869149</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>134</v>
@@ -2913,19 +2913,19 @@
         <v>145428</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>129526</v>
+        <v>128553</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>161264</v>
+        <v>163507</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5324795289942672</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4742551996162573</v>
+        <v>0.4706914581443356</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5904634035987132</v>
+        <v>0.5986748418722677</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>240</v>
@@ -2934,19 +2934,19 @@
         <v>252699</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>229354</v>
+        <v>227010</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>275303</v>
+        <v>275984</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4712443432642953</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4277101128359602</v>
+        <v>0.4233375453556489</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5133966649622008</v>
+        <v>0.5146661912480175</v>
       </c>
     </row>
     <row r="35">
@@ -2963,19 +2963,19 @@
         <v>81660</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>67677</v>
+        <v>66787</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>96214</v>
+        <v>96071</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3103496330877391</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2572062064518572</v>
+        <v>0.2538231727707906</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3656602967456348</v>
+        <v>0.3651199542489937</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>66</v>
@@ -2984,19 +2984,19 @@
         <v>65455</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>51494</v>
+        <v>52209</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>78791</v>
+        <v>82118</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.23966265849526</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1885421273528257</v>
+        <v>0.1911602717450382</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2884910741694244</v>
+        <v>0.3006714774032597</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>146</v>
@@ -3005,19 +3005,19 @@
         <v>147116</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>127045</v>
+        <v>128290</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>170168</v>
+        <v>168001</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2743475722296576</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2369185871039126</v>
+        <v>0.2392404057780416</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3173364960945499</v>
+        <v>0.3132955720060002</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>57743</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>44558</v>
+        <v>46100</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>72789</v>
+        <v>72061</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2194521241166546</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1693438574178405</v>
+        <v>0.1752030325514118</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2766341416033073</v>
+        <v>0.2738695553659704</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>54</v>
@@ -3055,19 +3055,19 @@
         <v>53171</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>41970</v>
+        <v>41679</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>67509</v>
+        <v>68316</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1946837679548975</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1536722883974346</v>
+        <v>0.1526067120001394</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2471798697476583</v>
+        <v>0.2501377342653848</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>110</v>
@@ -3076,19 +3076,19 @@
         <v>110914</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>92137</v>
+        <v>92771</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>128401</v>
+        <v>130754</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2068371852112754</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1718211465759468</v>
+        <v>0.1730027449383181</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2394469326187532</v>
+        <v>0.2438352307486161</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>13427</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>8552</v>
+        <v>7179</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>22493</v>
+        <v>21165</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05102957582531565</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03250142048527416</v>
+        <v>0.02728558174761516</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.08548566374260642</v>
+        <v>0.08043692575788819</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>9</v>
@@ -3126,19 +3126,19 @@
         <v>9060</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>4416</v>
+        <v>3884</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>16317</v>
+        <v>15952</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0331740445555752</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01617003598243788</v>
+        <v>0.01422039603803718</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05974431716579238</v>
+        <v>0.05840785031181082</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>23</v>
@@ -3147,19 +3147,19 @@
         <v>22487</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>15189</v>
+        <v>14175</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>32948</v>
+        <v>32798</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04193545449486379</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02832599319025296</v>
+        <v>0.02643426348224457</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06144312368909429</v>
+        <v>0.06116251248106812</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>3022</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>8076</v>
+        <v>8226</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01148489358915022</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.003709857763933001</v>
+        <v>0.003720187565159723</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03069186730498724</v>
+        <v>0.03126104716708056</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>0</v>
@@ -3210,19 +3210,19 @@
         <v>3022</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>8094</v>
+        <v>8515</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.005635444799907947</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.00183054521774012</v>
+        <v>0.001828896905961913</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01509316500542452</v>
+        <v>0.01587949314420713</v>
       </c>
     </row>
     <row r="39">
@@ -3314,19 +3314,19 @@
         <v>185126</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>159777</v>
+        <v>163537</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>210795</v>
+        <v>208792</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2876969151029558</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2483033206561579</v>
+        <v>0.2541473945009594</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3275879613723934</v>
+        <v>0.3244763877076655</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>202</v>
@@ -3335,19 +3335,19 @@
         <v>227469</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>203430</v>
+        <v>203091</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>252357</v>
+        <v>253072</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3343851990841688</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2990468605770639</v>
+        <v>0.2985492256469311</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3709714549859451</v>
+        <v>0.3720216328755024</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>369</v>
@@ -3356,19 +3356,19 @@
         <v>412595</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>377996</v>
+        <v>376305</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>446408</v>
+        <v>446119</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3116897848296478</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.285552137416706</v>
+        <v>0.2842746419616371</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3372332331072926</v>
+        <v>0.3370147436387023</v>
       </c>
     </row>
     <row r="41">
@@ -3385,19 +3385,19 @@
         <v>231991</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>206320</v>
+        <v>205757</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>258210</v>
+        <v>257836</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3605289437913521</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3206347818625817</v>
+        <v>0.3197584070999628</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4012735599789767</v>
+        <v>0.4006924215096289</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>229</v>
@@ -3406,19 +3406,19 @@
         <v>240423</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>216337</v>
+        <v>214495</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>266970</v>
+        <v>264662</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3534276842664165</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3180198581122146</v>
+        <v>0.3153125422471829</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3924516780746788</v>
+        <v>0.3890594831692461</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>431</v>
@@ -3427,19 +3427,19 @@
         <v>472415</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>432698</v>
+        <v>438137</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>509263</v>
+        <v>511847</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3568796429357934</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3268758639493858</v>
+        <v>0.3309850432732063</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3847163295875163</v>
+        <v>0.3866685080343035</v>
       </c>
     </row>
     <row r="42">
@@ -3456,19 +3456,19 @@
         <v>171654</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>149957</v>
+        <v>148873</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>194551</v>
+        <v>195616</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2667613938043291</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2330427432366034</v>
+        <v>0.2313583195134792</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3023439599021621</v>
+        <v>0.3039997764367497</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>172</v>
@@ -3477,19 +3477,19 @@
         <v>177505</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>154627</v>
+        <v>154285</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>200526</v>
+        <v>200358</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2609367064006887</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2273059677435265</v>
+        <v>0.2268032567852342</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2947781950616067</v>
+        <v>0.2945308818059021</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>323</v>
@@ -3498,19 +3498,19 @@
         <v>349160</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>317333</v>
+        <v>316027</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>383614</v>
+        <v>383115</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2637681168158135</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2397250015185473</v>
+        <v>0.2387386489792571</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2897960723680047</v>
+        <v>0.2894189442058354</v>
       </c>
     </row>
     <row r="43">
@@ -3527,19 +3527,19 @@
         <v>48084</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>36719</v>
+        <v>34391</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>64372</v>
+        <v>63696</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.07472609136206322</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.05706403819780076</v>
+        <v>0.05344583783972448</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1000373841377936</v>
+        <v>0.09898753984469773</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>31</v>
@@ -3548,19 +3548,19 @@
         <v>32107</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>23201</v>
+        <v>23017</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>46804</v>
+        <v>44678</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04719856180278247</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03410583649152539</v>
+        <v>0.0338361951619028</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.06880310734051233</v>
+        <v>0.06567795997544593</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>74</v>
@@ -3569,19 +3569,19 @@
         <v>80192</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>64959</v>
+        <v>63647</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>99803</v>
+        <v>98414</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.06057983507902547</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.04907250274612214</v>
+        <v>0.04808093737639465</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.07539495286445053</v>
+        <v>0.07434548663247842</v>
       </c>
     </row>
     <row r="44">
@@ -3598,19 +3598,19 @@
         <v>6619</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2199</v>
+        <v>2274</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>13460</v>
+        <v>14594</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01028665593929982</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.003417716174349916</v>
+        <v>0.003534701118540809</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02091829491874629</v>
+        <v>0.02268053407938528</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>3</v>
@@ -3619,19 +3619,19 @@
         <v>2756</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>7492</v>
+        <v>7579</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.004051848445943493</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.001220181852397229</v>
+        <v>0.001223405399353392</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01101296860637861</v>
+        <v>0.01114190440474431</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>9</v>
@@ -3640,19 +3640,19 @@
         <v>9376</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>4278</v>
+        <v>4435</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>17196</v>
+        <v>17276</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.007082620339719949</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.003231540044446849</v>
+        <v>0.00335033540801704</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01299024379538547</v>
+        <v>0.01305090827098858</v>
       </c>
     </row>
     <row r="45">
@@ -3744,19 +3744,19 @@
         <v>189061</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>167205</v>
+        <v>167109</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>215921</v>
+        <v>214881</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2431469246470308</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2150390301320115</v>
+        <v>0.2149155496229951</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2776916666725772</v>
+        <v>0.276354139234557</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>199</v>
@@ -3765,19 +3765,19 @@
         <v>236680</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>208954</v>
+        <v>211069</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>264892</v>
+        <v>263613</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2884722262992068</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2546787872485027</v>
+        <v>0.2572560366515199</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3228572732827058</v>
+        <v>0.3212987493087845</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>385</v>
@@ -3786,19 +3786,19 @@
         <v>425741</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>391374</v>
+        <v>389330</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>466121</v>
+        <v>464754</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2664180201955439</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2449120424749868</v>
+        <v>0.2436328066469868</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.291686676478744</v>
+        <v>0.2908314091229682</v>
       </c>
     </row>
     <row r="47">
@@ -3815,19 +3815,19 @@
         <v>226252</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>198256</v>
+        <v>201641</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>250139</v>
+        <v>253367</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2909774629399932</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2549734905418711</v>
+        <v>0.2593262316249705</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3216984372397296</v>
+        <v>0.3258501379695598</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>241</v>
@@ -3836,19 +3836,19 @@
         <v>258133</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>232344</v>
+        <v>231913</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>286986</v>
+        <v>285850</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3146197209636821</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2831871506056705</v>
+        <v>0.2826614663687669</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3497860472615589</v>
+        <v>0.348401616506989</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>456</v>
@@ -3857,19 +3857,19 @@
         <v>484385</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>450327</v>
+        <v>444229</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>521440</v>
+        <v>520380</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3031159645141013</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2818032536341072</v>
+        <v>0.2779877173569578</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3263042519211888</v>
+        <v>0.3256411478327599</v>
       </c>
     </row>
     <row r="48">
@@ -3886,19 +3886,19 @@
         <v>253706</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>228918</v>
+        <v>227436</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>280241</v>
+        <v>280926</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3262854572227158</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2944068916563628</v>
+        <v>0.2925002097907398</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3604119215459898</v>
+        <v>0.3612927081052486</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>229</v>
@@ -3907,19 +3907,19 @@
         <v>240623</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>213656</v>
+        <v>214961</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>266982</v>
+        <v>267387</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.293278338119596</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2604094733748897</v>
+        <v>0.2619999450299391</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3254045941337113</v>
+        <v>0.3258987750047326</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>473</v>
@@ -3928,19 +3928,19 @@
         <v>494329</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>455565</v>
+        <v>455570</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>530029</v>
+        <v>529768</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3093388116532212</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2850814427404497</v>
+        <v>0.2850843168126137</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3316789682730817</v>
+        <v>0.3315156413165307</v>
       </c>
     </row>
     <row r="49">
@@ -3957,19 +3957,19 @@
         <v>106527</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>88839</v>
+        <v>88283</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>126277</v>
+        <v>126987</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1370026523201663</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1142534652425124</v>
+        <v>0.1135388869847248</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1624016364452388</v>
+        <v>0.1633155252172287</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>72</v>
@@ -3978,19 +3978,19 @@
         <v>76172</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>60185</v>
+        <v>60305</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>93711</v>
+        <v>94233</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.09284009976466094</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.07335557023515667</v>
+        <v>0.0735011096338663</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1142180934670501</v>
+        <v>0.1148531341369517</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>174</v>
@@ -3999,19 +3999,19 @@
         <v>182699</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>158603</v>
+        <v>155622</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>209361</v>
+        <v>206554</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1143285400092986</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.09924987668642304</v>
+        <v>0.09738463859102883</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1310129664652993</v>
+        <v>0.129256357607764</v>
       </c>
     </row>
     <row r="50">
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>6753</v>
+        <v>7158</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.002587502870093808</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.008684967214686003</v>
+        <v>0.009206293488487343</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>9</v>
@@ -4049,19 +4049,19 @@
         <v>8852</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>4793</v>
+        <v>4227</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>17212</v>
+        <v>16081</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.01078961485285422</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.005841757284687908</v>
+        <v>0.005151949767623266</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.02097843642604742</v>
+        <v>0.01960025839716651</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>11</v>
@@ -4070,19 +4070,19 @@
         <v>10864</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>5941</v>
+        <v>5967</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>18923</v>
+        <v>18092</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.00679866362783492</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.003717419689472536</v>
+        <v>0.003733695081933935</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.01184158704255795</v>
+        <v>0.0113217181633131</v>
       </c>
     </row>
     <row r="51">
@@ -4174,19 +4174,19 @@
         <v>950074</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>902462</v>
+        <v>900020</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>1006746</v>
+        <v>1003908</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.2816064742580003</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.2674939834252215</v>
+        <v>0.2667700810767868</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2984044031092541</v>
+        <v>0.2975629893563195</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>1079</v>
@@ -4195,19 +4195,19 @@
         <v>1209170</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>1150766</v>
+        <v>1145411</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>1269928</v>
+        <v>1263901</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.3434025424249811</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.3268156207024254</v>
+        <v>0.3252949423780541</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.3606574700653378</v>
+        <v>0.358945797102861</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>2000</v>
@@ -4216,19 +4216,19 @@
         <v>2159245</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>2078706</v>
+        <v>2081151</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>2235790</v>
+        <v>2235904</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.3131649607575122</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.3014841156721833</v>
+        <v>0.3018386450007376</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.3242667127590652</v>
+        <v>0.3242831838892518</v>
       </c>
     </row>
     <row r="53">
@@ -4245,19 +4245,19 @@
         <v>991874</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>940255</v>
+        <v>942029</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1053123</v>
+        <v>1047663</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.2939962157012802</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.2786961363918242</v>
+        <v>0.2792217643495844</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.3121506987965655</v>
+        <v>0.3105323157004933</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>1034</v>
@@ -4266,19 +4266,19 @@
         <v>1084925</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>1028189</v>
+        <v>1029842</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>1140330</v>
+        <v>1140982</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.3081171351379859</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.2920040155043136</v>
+        <v>0.2924736351275082</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.3238520546781878</v>
+        <v>0.3240372258562959</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1969</v>
@@ -4287,19 +4287,19 @@
         <v>2076800</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>1992995</v>
+        <v>1998276</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>2153100</v>
+        <v>2156663</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.3012075943313867</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.2890530909888865</v>
+        <v>0.2898189520196033</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.3122738488603824</v>
+        <v>0.3127905257131768</v>
       </c>
     </row>
     <row r="54">
@@ -4316,19 +4316,19 @@
         <v>1012881</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>963113</v>
+        <v>961547</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1070266</v>
+        <v>1068594</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.3002226705510283</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2854711404096202</v>
+        <v>0.2850069720474419</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3172319792558432</v>
+        <v>0.3167364031632703</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>933</v>
@@ -4337,19 +4337,19 @@
         <v>950747</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>899169</v>
+        <v>901402</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>1004651</v>
+        <v>1008222</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2700106402542993</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2553626970539248</v>
+        <v>0.2559968039174605</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2853192794615344</v>
+        <v>0.2863334755695775</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1885</v>
@@ -4358,19 +4358,19 @@
         <v>1963628</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1885188</v>
+        <v>1894005</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>2035355</v>
+        <v>2034384</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2847937609371378</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2734172937940065</v>
+        <v>0.2746961353609518</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2951967647308293</v>
+        <v>0.2950558397325695</v>
       </c>
     </row>
     <row r="55">
@@ -4387,19 +4387,19 @@
         <v>372357</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>338878</v>
+        <v>335075</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>413399</v>
+        <v>408870</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1103684566826233</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1004449871629577</v>
+        <v>0.09931783666305929</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1225333904614193</v>
+        <v>0.1211910286176097</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>247</v>
@@ -4408,19 +4408,19 @@
         <v>250515</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>224861</v>
+        <v>222928</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>280752</v>
+        <v>283803</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.07114590842414353</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.0638602085823049</v>
+        <v>0.06331110025180055</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.07973326937694054</v>
+        <v>0.08059974150447172</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>607</v>
@@ -4429,19 +4429,19 @@
         <v>622872</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>575920</v>
+        <v>575445</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>671844</v>
+        <v>673859</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.09033798716558246</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.08352827668042528</v>
+        <v>0.08345931941159175</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.09744055138624003</v>
+        <v>0.0977328358712862</v>
       </c>
     </row>
     <row r="56">
@@ -4458,19 +4458,19 @@
         <v>46579</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>34349</v>
+        <v>35599</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>61623</v>
+        <v>64173</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.01380618280706789</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.01018106146353589</v>
+        <v>0.01055171458947692</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.01826527385883132</v>
+        <v>0.01902123597673076</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>26</v>
@@ -4479,19 +4479,19 @@
         <v>25788</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>17156</v>
+        <v>16731</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>38956</v>
+        <v>37472</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.007323773758590055</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.00487217570896484</v>
+        <v>0.004751710025196219</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.01106341375033448</v>
+        <v>0.01064207930502975</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>71</v>
@@ -4500,19 +4500,19 @@
         <v>72367</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>57399</v>
+        <v>57653</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>89556</v>
+        <v>90596</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.01049569680838082</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.008324780265313865</v>
+        <v>0.008361644167075253</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.01298865462295319</v>
+        <v>0.01313954843010969</v>
       </c>
     </row>
     <row r="57">
@@ -4848,19 +4848,19 @@
         <v>127196</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>109551</v>
+        <v>110382</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>144183</v>
+        <v>146848</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3989278185379268</v>
+        <v>0.3989278185379269</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.343588209511174</v>
+        <v>0.3461945056398915</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4522047915121114</v>
+        <v>0.4605633884939941</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>294</v>
@@ -4869,19 +4869,19 @@
         <v>149204</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>133501</v>
+        <v>134111</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>162375</v>
+        <v>162734</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4720745928959112</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4223892575180351</v>
+        <v>0.4243208284356207</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5137456920225464</v>
+        <v>0.5148818904595075</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>449</v>
@@ -4890,19 +4890,19 @@
         <v>276400</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>254226</v>
+        <v>253065</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>296639</v>
+        <v>299414</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4353407982546042</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4004150796272128</v>
+        <v>0.3985859373622515</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4672174790804794</v>
+        <v>0.4715883563726644</v>
       </c>
     </row>
     <row r="5">
@@ -4919,19 +4919,19 @@
         <v>159606</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>140960</v>
+        <v>138714</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>178267</v>
+        <v>178191</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5005750918247656</v>
+        <v>0.5005750918247657</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4420950471627176</v>
+        <v>0.4350530698526672</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5591029275265306</v>
+        <v>0.5588637758353791</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>215</v>
@@ -4940,19 +4940,19 @@
         <v>140476</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>125045</v>
+        <v>127602</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>155055</v>
+        <v>156325</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4444577898290983</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.395635874287597</v>
+        <v>0.4037260015268501</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.490585667023932</v>
+        <v>0.4946054598403132</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>362</v>
@@ -4961,19 +4961,19 @@
         <v>300082</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>277644</v>
+        <v>278091</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>322444</v>
+        <v>325456</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4726395034511433</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4372997968114811</v>
+        <v>0.4380033167909731</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5078606684080705</v>
+        <v>0.5126045752581553</v>
       </c>
     </row>
     <row r="6">
@@ -4990,19 +4990,19 @@
         <v>32043</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21264</v>
+        <v>21630</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46902</v>
+        <v>45391</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1004970896373075</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06669166328781652</v>
+        <v>0.06783994881560042</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.14710049152008</v>
+        <v>0.1423612204833472</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -5011,19 +5011,19 @@
         <v>25293</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17361</v>
+        <v>16184</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>39827</v>
+        <v>37893</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.08002651317497442</v>
+        <v>0.08002651317497443</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05492824054726947</v>
+        <v>0.05120431150124237</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1260118217746213</v>
+        <v>0.1198921736761424</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>57</v>
@@ -5032,19 +5032,19 @@
         <v>57336</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>43477</v>
+        <v>42899</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>76518</v>
+        <v>74139</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09030669242493525</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06847747892063959</v>
+        <v>0.06756740950608529</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1205192963828416</v>
+        <v>0.1167718105771131</v>
       </c>
     </row>
     <row r="7">
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6116</v>
+        <v>5999</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003441104100016069</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01935169660230099</v>
+        <v>0.01898148501910465</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6312</v>
+        <v>6570</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001713005869317368</v>
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009942278015396475</v>
+        <v>0.01034861091773025</v>
       </c>
     </row>
     <row r="8">
@@ -5246,19 +5246,19 @@
         <v>132111</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>109279</v>
+        <v>111058</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>152222</v>
+        <v>158289</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2489624381678805</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.205935329766853</v>
+        <v>0.209288048625057</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2868615366186514</v>
+        <v>0.2982947748517855</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>294</v>
@@ -5267,19 +5267,19 @@
         <v>197678</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>178198</v>
+        <v>177814</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>217367</v>
+        <v>216554</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3626402841232652</v>
+        <v>0.3626402841232651</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3269026573954172</v>
+        <v>0.3261993227351694</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3987592607369343</v>
+        <v>0.3972680552993954</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>413</v>
@@ -5288,19 +5288,19 @@
         <v>329790</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>300930</v>
+        <v>301168</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>360236</v>
+        <v>358969</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3065654634020802</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2797381691492319</v>
+        <v>0.2799590866540568</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3348675365975086</v>
+        <v>0.3336899962500043</v>
       </c>
     </row>
     <row r="11">
@@ -5317,19 +5317,19 @@
         <v>243887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>216720</v>
+        <v>214694</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>273818</v>
+        <v>273070</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4596039694750811</v>
+        <v>0.459603969475081</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4084072750559996</v>
+        <v>0.4045886091970813</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5160086318639242</v>
+        <v>0.5145991048512779</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>281</v>
@@ -5338,19 +5338,19 @@
         <v>219170</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>199045</v>
+        <v>199117</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>240647</v>
+        <v>239944</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4020672849084335</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3651480373837303</v>
+        <v>0.3652787706543482</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4414650043817577</v>
+        <v>0.4401757017331067</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>459</v>
@@ -5359,19 +5359,19 @@
         <v>463058</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>426763</v>
+        <v>424210</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>495378</v>
+        <v>497647</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.430448885957</v>
+        <v>0.4304488859570001</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3967102024923857</v>
+        <v>0.3943368234706776</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4604929677299642</v>
+        <v>0.462602472349376</v>
       </c>
     </row>
     <row r="12">
@@ -5388,19 +5388,19 @@
         <v>134184</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>109112</v>
+        <v>107593</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>163558</v>
+        <v>164764</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2528679725975558</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2056204450974895</v>
+        <v>0.2027578088533191</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3082238689386887</v>
+        <v>0.3104955502113449</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>125</v>
@@ -5409,19 +5409,19 @@
         <v>115589</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>97661</v>
+        <v>97617</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>135726</v>
+        <v>135723</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2120477052073438</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1791582777661137</v>
+        <v>0.1790785139438663</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2489891468583554</v>
+        <v>0.2489830148685765</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>199</v>
@@ -5430,19 +5430,19 @@
         <v>249773</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>219431</v>
+        <v>216902</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>285083</v>
+        <v>289414</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2321834595089808</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2039787566039579</v>
+        <v>0.2016278919633886</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2650072819823657</v>
+        <v>0.26903289972739</v>
       </c>
     </row>
     <row r="13">
@@ -5459,19 +5459,19 @@
         <v>19041</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8730</v>
+        <v>9783</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36372</v>
+        <v>35587</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03588168763513039</v>
+        <v>0.03588168763513038</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01645139289829781</v>
+        <v>0.01843574739321542</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06854210543099332</v>
+        <v>0.06706332747655817</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -5480,19 +5480,19 @@
         <v>11968</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6648</v>
+        <v>6865</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20150</v>
+        <v>19819</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02195487525613531</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01219599620706227</v>
+        <v>0.01259383659877847</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03696559727402649</v>
+        <v>0.0363579479676522</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -5501,19 +5501,19 @@
         <v>31008</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20056</v>
+        <v>20479</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50332</v>
+        <v>49677</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0288246703407134</v>
+        <v>0.02882467034071341</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01864330430807713</v>
+        <v>0.01903688051672514</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04678747444175642</v>
+        <v>0.04617823818472757</v>
       </c>
     </row>
     <row r="14">
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7300</v>
+        <v>7277</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002683932124352166</v>
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01375717868432002</v>
+        <v>0.0137141353332698</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -5554,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3587</v>
+        <v>4549</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001289850504822432</v>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.00658036275672201</v>
+        <v>0.008345496585871508</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7892</v>
+        <v>8249</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001977520791225551</v>
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007336478129211279</v>
+        <v>0.007667744410738169</v>
       </c>
     </row>
     <row r="15">
@@ -5676,19 +5676,19 @@
         <v>82071</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>69235</v>
+        <v>69205</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>96334</v>
+        <v>97026</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2631228201209925</v>
+        <v>0.2631228201209924</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2219701420896563</v>
+        <v>0.2218750488148212</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3088515448261965</v>
+        <v>0.3110683051615344</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>215</v>
@@ -5697,19 +5697,19 @@
         <v>121436</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>106611</v>
+        <v>107957</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>134701</v>
+        <v>135814</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3464901394086856</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3041892794507245</v>
+        <v>0.3080319482203472</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3843370720252069</v>
+        <v>0.3875140426594293</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>335</v>
@@ -5718,19 +5718,19 @@
         <v>203507</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>183415</v>
+        <v>185794</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>223339</v>
+        <v>224029</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3072332719459675</v>
+        <v>0.3072332719459676</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.276899862562601</v>
+        <v>0.2804914299456693</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3371731662932112</v>
+        <v>0.338215311539218</v>
       </c>
     </row>
     <row r="17">
@@ -5747,19 +5747,19 @@
         <v>116459</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>99754</v>
+        <v>100001</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>132986</v>
+        <v>132169</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3733732000973531</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3198158331246336</v>
+        <v>0.3206066272153237</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4263572776714164</v>
+        <v>0.4237406812513419</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>183</v>
@@ -5768,19 +5768,19 @@
         <v>129741</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>116118</v>
+        <v>115525</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>145780</v>
+        <v>146222</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3701871146753264</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3313159308347325</v>
+        <v>0.3296250184180359</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.415950918290215</v>
+        <v>0.4172097136167936</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>310</v>
@@ -5789,19 +5789,19 @@
         <v>246201</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>222804</v>
+        <v>224574</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>269578</v>
+        <v>268201</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3716874116046996</v>
+        <v>0.3716874116046997</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3363650695766431</v>
+        <v>0.3390384166895388</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4069797540132409</v>
+        <v>0.4049006498754305</v>
       </c>
     </row>
     <row r="18">
@@ -5818,19 +5818,19 @@
         <v>100568</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>84362</v>
+        <v>84902</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>117253</v>
+        <v>117030</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3224258756861505</v>
+        <v>0.3224258756861504</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2704686595447026</v>
+        <v>0.2721997792720388</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3759179356513703</v>
+        <v>0.3752027459074592</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>113</v>
@@ -5839,19 +5839,19 @@
         <v>85312</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>72284</v>
+        <v>70703</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>100388</v>
+        <v>98498</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.243417853054384</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2062450803066076</v>
+        <v>0.2017336292002848</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.286433895353665</v>
+        <v>0.2810419527980146</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>209</v>
@@ -5860,19 +5860,19 @@
         <v>185880</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>163648</v>
+        <v>165781</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>207199</v>
+        <v>209462</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2806219697208119</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2470579602050352</v>
+        <v>0.250278586875671</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3128071472437826</v>
+        <v>0.3162233252559973</v>
       </c>
     </row>
     <row r="19">
@@ -5889,19 +5889,19 @@
         <v>11946</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6449</v>
+        <v>6681</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20498</v>
+        <v>20150</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.03830076035150458</v>
+        <v>0.03830076035150457</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02067435453946042</v>
+        <v>0.021419623695302</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06571731809907984</v>
+        <v>0.06460021208550457</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -5910,19 +5910,19 @@
         <v>12920</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7617</v>
+        <v>7564</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22628</v>
+        <v>21288</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03686419116136137</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0217337171600583</v>
+        <v>0.02158091769831952</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06456376924467967</v>
+        <v>0.06074117256050246</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -5931,19 +5931,19 @@
         <v>24866</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17169</v>
+        <v>15512</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>37211</v>
+        <v>35863</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.03754065775259072</v>
+        <v>0.03754065775259074</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02591978139958259</v>
+        <v>0.0234178480009422</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05617795673859019</v>
+        <v>0.05414256446939809</v>
       </c>
     </row>
     <row r="20">
@@ -5963,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4310</v>
+        <v>5597</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002777343743999401</v>
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01381764023665742</v>
+        <v>0.01794339463350805</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3661</v>
+        <v>3274</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003040701700242481</v>
@@ -5993,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01044484214661914</v>
+        <v>0.009341711066801978</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -6002,19 +6002,19 @@
         <v>1932</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6177</v>
+        <v>5384</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.0029166889759301</v>
+        <v>0.002916688975930101</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0006558668140030243</v>
+        <v>0.0006440877151005649</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.009325324706824494</v>
+        <v>0.008127881084819068</v>
       </c>
     </row>
     <row r="21">
@@ -6106,19 +6106,19 @@
         <v>81500</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>67202</v>
+        <v>65263</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>101004</v>
+        <v>100569</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2184144043078468</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1800973827491902</v>
+        <v>0.1749001884846013</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2706839562608099</v>
+        <v>0.2695177289062667</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>266</v>
@@ -6127,19 +6127,19 @@
         <v>144488</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>127882</v>
+        <v>127393</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>165147</v>
+        <v>162288</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3424194763329563</v>
+        <v>0.3424194763329564</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3030652153357862</v>
+        <v>0.3019066105818444</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3913786780792277</v>
+        <v>0.3846043823256097</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>363</v>
@@ -6148,19 +6148,19 @@
         <v>225988</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>200288</v>
+        <v>201772</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>252168</v>
+        <v>252482</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2842236335424928</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2519009720440541</v>
+        <v>0.2537668758878022</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3171496204728186</v>
+        <v>0.3175443426445787</v>
       </c>
     </row>
     <row r="23">
@@ -6177,19 +6177,19 @@
         <v>157021</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>130699</v>
+        <v>132752</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>181667</v>
+        <v>182474</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4208053774553099</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3502635540298359</v>
+        <v>0.3557643343209399</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4868526047944399</v>
+        <v>0.4890159841789194</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>228</v>
@@ -6198,19 +6198,19 @@
         <v>173651</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>153655</v>
+        <v>154262</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>195012</v>
+        <v>194103</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.411533082807765</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3641449779119473</v>
+        <v>0.3655826468217344</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4621557618822569</v>
+        <v>0.4600020750392306</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>352</v>
@@ -6219,19 +6219,19 @@
         <v>330673</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>300412</v>
+        <v>300518</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>363086</v>
+        <v>363028</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.4158845903130879</v>
+        <v>0.4158845903130878</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3778258686128417</v>
+        <v>0.3779593381498196</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4566507656318104</v>
+        <v>0.456578064746648</v>
       </c>
     </row>
     <row r="24">
@@ -6248,19 +6248,19 @@
         <v>111778</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>88768</v>
+        <v>88042</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>144994</v>
+        <v>139383</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.299556387963556</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.237890535645362</v>
+        <v>0.2359451111938573</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3885729889627642</v>
+        <v>0.3735349577315408</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>96</v>
@@ -6269,19 +6269,19 @@
         <v>96846</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>77831</v>
+        <v>77976</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>116854</v>
+        <v>116246</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2295146076067525</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.184450742680597</v>
+        <v>0.1847935751533398</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2769297522650635</v>
+        <v>0.2754891752772042</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>155</v>
@@ -6290,19 +6290,19 @@
         <v>208624</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>179574</v>
+        <v>179654</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>245887</v>
+        <v>246067</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2623853633898977</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2258483377788931</v>
+        <v>0.2259493766350115</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.309250434545884</v>
+        <v>0.3094765585480603</v>
       </c>
     </row>
     <row r="25">
@@ -6319,19 +6319,19 @@
         <v>22845</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12447</v>
+        <v>11598</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41566</v>
+        <v>39726</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06122383027328741</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03335721818346328</v>
+        <v>0.03108187861887283</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1113947434374289</v>
+        <v>0.1064636231159134</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -6340,19 +6340,19 @@
         <v>4988</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1949</v>
+        <v>2002</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10084</v>
+        <v>9963</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01182087944950658</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004618852076569187</v>
+        <v>0.004744096574973153</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02389820789575306</v>
+        <v>0.02361183854539612</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>19</v>
@@ -6361,19 +6361,19 @@
         <v>27833</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15812</v>
+        <v>16285</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>47122</v>
+        <v>46403</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03500578884533827</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01988684035641837</v>
+        <v>0.0204819736729178</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05926488374821599</v>
+        <v>0.05836094637669741</v>
       </c>
     </row>
     <row r="26">
@@ -6406,16 +6406,16 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6916</v>
+        <v>6474</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.004711953803019701</v>
+        <v>0.004711953803019702</v>
       </c>
       <c r="O26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01639009281134549</v>
+        <v>0.01534159943325005</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2</v>
@@ -6427,16 +6427,16 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7224</v>
+        <v>6858</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.002500623909183297</v>
+        <v>0.002500623909183296</v>
       </c>
       <c r="V26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.009085083834346265</v>
+        <v>0.008625579910023476</v>
       </c>
     </row>
     <row r="27">
@@ -6528,19 +6528,19 @@
         <v>27032</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>19394</v>
+        <v>18572</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>38182</v>
+        <v>35891</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1314356510469946</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09429819071163671</v>
+        <v>0.09030036559199364</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1856529547131456</v>
+        <v>0.1745113890679555</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>56</v>
@@ -6549,19 +6549,19 @@
         <v>23073</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>17180</v>
+        <v>18035</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>29052</v>
+        <v>29641</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.101917092620293</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07588542640244006</v>
+        <v>0.0796644226389506</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1283253299109995</v>
+        <v>0.1309267478906689</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>93</v>
@@ -6570,19 +6570,19 @@
         <v>50105</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>40622</v>
+        <v>41349</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>61658</v>
+        <v>61825</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1159683515974426</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09401998766738594</v>
+        <v>0.09570368973510079</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1427086119367826</v>
+        <v>0.1430959228452357</v>
       </c>
     </row>
     <row r="29">
@@ -6599,19 +6599,19 @@
         <v>122763</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>110203</v>
+        <v>110126</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>135205</v>
+        <v>135473</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.5969086342609714</v>
+        <v>0.5969086342609715</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5358389057749687</v>
+        <v>0.5354616737800774</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6574058249171897</v>
+        <v>0.6587081817209596</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>328</v>
@@ -6620,19 +6620,19 @@
         <v>152661</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>141758</v>
+        <v>141419</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>162666</v>
+        <v>162241</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.6743229991136217</v>
+        <v>0.6743229991136216</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6261635712703625</v>
+        <v>0.6246659380670243</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7185200818513175</v>
+        <v>0.7166396373266415</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>500</v>
@@ -6641,19 +6641,19 @@
         <v>275424</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>259141</v>
+        <v>259379</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>291551</v>
+        <v>290890</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.6374726464178011</v>
+        <v>0.637472646417801</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5997863317750385</v>
+        <v>0.6003354706330993</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6747986300198954</v>
+        <v>0.673268541288316</v>
       </c>
     </row>
     <row r="30">
@@ -6670,19 +6670,19 @@
         <v>52612</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>41373</v>
+        <v>41114</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>64747</v>
+        <v>64697</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2558129160292044</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2011678956035977</v>
+        <v>0.1999061596627172</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.314817848127901</v>
+        <v>0.3145750013357013</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>102</v>
@@ -6691,19 +6691,19 @@
         <v>48764</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>40587</v>
+        <v>39909</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>59039</v>
+        <v>58956</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.2153989876833082</v>
+        <v>0.2153989876833081</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1792773165283922</v>
+        <v>0.1762845715283863</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2607848834568282</v>
+        <v>0.2604161871726144</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>167</v>
@@ -6712,19 +6712,19 @@
         <v>101376</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>86155</v>
+        <v>86489</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>116026</v>
+        <v>115977</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.234636599671788</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1994074104249119</v>
+        <v>0.200180788925802</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2685448472675778</v>
+        <v>0.2684308813811274</v>
       </c>
     </row>
     <row r="31">
@@ -6741,19 +6741,19 @@
         <v>3258</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1218</v>
+        <v>1233</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>8051</v>
+        <v>7228</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01584279866282952</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.00592341632250991</v>
+        <v>0.005994356912186713</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03914459152020026</v>
+        <v>0.03514404437180657</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -6762,19 +6762,19 @@
         <v>1893</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>652</v>
+        <v>450</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4983</v>
+        <v>5469</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.008360920582777246</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.002881400316351063</v>
+        <v>0.001987049628583661</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02201264655981048</v>
+        <v>0.02415842810345247</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>9</v>
@@ -6783,19 +6783,19 @@
         <v>5151</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2346</v>
+        <v>2339</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>9325</v>
+        <v>9679</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.01192240231296826</v>
+        <v>0.01192240231296825</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.005430660832040774</v>
+        <v>0.005413635766368978</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02158377642570719</v>
+        <v>0.02240313945805058</v>
       </c>
     </row>
     <row r="32">
@@ -6934,19 +6934,19 @@
         <v>84363</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>72316</v>
+        <v>72696</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>96605</v>
+        <v>98292</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.3116386313447541</v>
+        <v>0.311638631344754</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2671360379183456</v>
+        <v>0.2685424233830268</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3568600911206482</v>
+        <v>0.3630938201297083</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>238</v>
@@ -6955,19 +6955,19 @@
         <v>107813</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>96000</v>
+        <v>96375</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>120541</v>
+        <v>120114</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4087692705251439</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3639826965656426</v>
+        <v>0.3654027026078408</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4570281602210375</v>
+        <v>0.4554103522108528</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>392</v>
@@ -6976,19 +6976,19 @@
         <v>192176</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>174568</v>
+        <v>174111</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>210336</v>
+        <v>208543</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.359571807332504</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.326626272732853</v>
+        <v>0.3257725414349313</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3935513874707246</v>
+        <v>0.390195985705653</v>
       </c>
     </row>
     <row r="35">
@@ -7005,19 +7005,19 @@
         <v>106576</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>93391</v>
+        <v>92021</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>122318</v>
+        <v>121719</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.3936962219178196</v>
+        <v>0.3936962219178195</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3449896451966042</v>
+        <v>0.3399301528867524</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4518449292680832</v>
+        <v>0.4496327810637598</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>172</v>
@@ -7026,19 +7026,19 @@
         <v>115905</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>102293</v>
+        <v>102824</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>128359</v>
+        <v>128639</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.4394518996577513</v>
+        <v>0.4394518996577511</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3878419096813955</v>
+        <v>0.3898550407903905</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4866699713096571</v>
+        <v>0.4877311798508697</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>303</v>
@@ -7047,19 +7047,19 @@
         <v>222482</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>201694</v>
+        <v>202479</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>242469</v>
+        <v>241871</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.4162762746391211</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3773816047342485</v>
+        <v>0.378849127587005</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4536731670296608</v>
+        <v>0.4525537817255545</v>
       </c>
     </row>
     <row r="36">
@@ -7076,19 +7076,19 @@
         <v>71201</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>57764</v>
+        <v>58889</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>85149</v>
+        <v>86058</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2630181088505224</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2133819006007167</v>
+        <v>0.2175391902984956</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3145429272489823</v>
+        <v>0.3179001895563939</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>49</v>
@@ -7097,19 +7097,19 @@
         <v>38613</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>29438</v>
+        <v>29218</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>49014</v>
+        <v>50285</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1464008760156671</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1116130824547548</v>
+        <v>0.11077878886286</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1858338825216147</v>
+        <v>0.1906551869098237</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>126</v>
@@ -7118,19 +7118,19 @@
         <v>109814</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>94155</v>
+        <v>93863</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>131188</v>
+        <v>127537</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.2054684582784084</v>
+        <v>0.2054684582784083</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1761696542348456</v>
+        <v>0.175623887236393</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2454597482831619</v>
+        <v>0.2386297269821616</v>
       </c>
     </row>
     <row r="37">
@@ -7147,19 +7147,19 @@
         <v>7765</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3445</v>
+        <v>3465</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>16195</v>
+        <v>15630</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02868417829090188</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01272552919900318</v>
+        <v>0.01279873270913093</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05982632844978655</v>
+        <v>0.05773587862295927</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1</v>
@@ -7171,16 +7171,16 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>6213</v>
+        <v>7803</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.005377953801437769</v>
+        <v>0.005377953801437766</v>
       </c>
       <c r="O37" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02355625877954459</v>
+        <v>0.02958620527966705</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>9</v>
@@ -7189,19 +7189,19 @@
         <v>9183</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4011</v>
+        <v>3728</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>18414</v>
+        <v>17459</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01718274713086649</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.007505609055490127</v>
+        <v>0.006975388851234616</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03445356180940869</v>
+        <v>0.03266686682068384</v>
       </c>
     </row>
     <row r="38">
@@ -7221,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>4285</v>
+        <v>3728</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.002962859596002087</v>
@@ -7230,7 +7230,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.01582927763115293</v>
+        <v>0.01377077639900818</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>0</v>
@@ -7255,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>4523</v>
+        <v>4567</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.001500712619100132</v>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.008462809739293276</v>
+        <v>0.008545723264030549</v>
       </c>
     </row>
     <row r="39">
@@ -7356,19 +7356,19 @@
         <v>219430</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>191565</v>
+        <v>193615</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>246141</v>
+        <v>247850</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3048968787448035</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2661776221240106</v>
+        <v>0.2690268109738819</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3420109006583131</v>
+        <v>0.3443852575545811</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>409</v>
@@ -7377,19 +7377,19 @@
         <v>301651</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>278080</v>
+        <v>278398</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>324994</v>
+        <v>325240</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3915102237584776</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3609173832274964</v>
+        <v>0.361330422320623</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4218062740370573</v>
+        <v>0.4221258569386302</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>622</v>
@@ -7398,19 +7398,19 @@
         <v>521082</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>482115</v>
+        <v>484527</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>557118</v>
+        <v>559347</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3496797027791553</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.323530310293302</v>
+        <v>0.3251489996119824</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3738622605631353</v>
+        <v>0.3753582906607515</v>
       </c>
     </row>
     <row r="41">
@@ -7427,19 +7427,19 @@
         <v>246989</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>218718</v>
+        <v>218233</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>276021</v>
+        <v>276238</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3431893529392456</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.303907407260723</v>
+        <v>0.3032333933937307</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3835288137748816</v>
+        <v>0.3838305192536189</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>337</v>
@@ -7448,19 +7448,19 @@
         <v>269455</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>244847</v>
+        <v>247998</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>293648</v>
+        <v>295732</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3497233427731808</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3177851915715548</v>
+        <v>0.3218748845881347</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3811224833325953</v>
+        <v>0.3838272518614267</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>550</v>
@@ -7469,19 +7469,19 @@
         <v>516444</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>479459</v>
+        <v>478215</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>556575</v>
+        <v>557036</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3465677066667129</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3217486027438498</v>
+        <v>0.3209136008474079</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3734978652989358</v>
+        <v>0.3738073040551209</v>
       </c>
     </row>
     <row r="42">
@@ -7498,19 +7498,19 @@
         <v>182488</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>155049</v>
+        <v>153945</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>214740</v>
+        <v>214920</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2535656676913344</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2154388528860226</v>
+        <v>0.2139058973629844</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2983796914724665</v>
+        <v>0.2986300454125589</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>174</v>
@@ -7519,19 +7519,19 @@
         <v>161151</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>138892</v>
+        <v>140373</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>184382</v>
+        <v>184734</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.209156188097794</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1802670624612453</v>
+        <v>0.1821891960122996</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2393082740716554</v>
+        <v>0.2397647382129411</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>298</v>
@@ -7540,19 +7540,19 @@
         <v>343639</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>304964</v>
+        <v>308589</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>381638</v>
+        <v>382863</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2306040569859555</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2046506836718436</v>
+        <v>0.2070833125817944</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2561040568571163</v>
+        <v>0.2569261095213254</v>
       </c>
     </row>
     <row r="43">
@@ -7569,19 +7569,19 @@
         <v>52466</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>35206</v>
+        <v>36341</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>73054</v>
+        <v>73275</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.07290046596191213</v>
+        <v>0.07290046596191214</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.04891853981627323</v>
+        <v>0.05049556476104709</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1015076308939658</v>
+        <v>0.1018157579828059</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>33</v>
@@ -7590,19 +7590,19 @@
         <v>33241</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>23257</v>
+        <v>22193</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>48653</v>
+        <v>48021</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04314348989475918</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03018450452318037</v>
+        <v>0.02880347496002999</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.06314633897855573</v>
+        <v>0.06232558252286425</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>68</v>
@@ -7611,19 +7611,19 @@
         <v>85707</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>66311</v>
+        <v>65895</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>112144</v>
+        <v>112006</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.05751482968612413</v>
+        <v>0.05751482968612412</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.04449895666163509</v>
+        <v>0.04422014167094891</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.0752556195214852</v>
+        <v>0.07516339499886651</v>
       </c>
     </row>
     <row r="44">
@@ -7640,19 +7640,19 @@
         <v>18314</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>10603</v>
+        <v>9753</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>30314</v>
+        <v>30126</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02544763466270451</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01473307503962925</v>
+        <v>0.01355177289739462</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.04212134726992094</v>
+        <v>0.0418598494797331</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>5</v>
@@ -7661,19 +7661,19 @@
         <v>4983</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1427</v>
+        <v>1966</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>14356</v>
+        <v>15127</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.006466755475788282</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.001852621052567266</v>
+        <v>0.002551866940437235</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01863233380710077</v>
+        <v>0.01963343836191341</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>19</v>
@@ -7682,19 +7682,19 @@
         <v>23297</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>13847</v>
+        <v>13777</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>37043</v>
+        <v>35579</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01563370388205215</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.009292450687453694</v>
+        <v>0.009244982401567322</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.02485796554482034</v>
+        <v>0.0238760116426761</v>
       </c>
     </row>
     <row r="45">
@@ -7786,19 +7786,19 @@
         <v>166346</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>145467</v>
+        <v>144259</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>190940</v>
+        <v>190246</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.208434466107292</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1822733914188761</v>
+        <v>0.180758864705599</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2392514534091269</v>
+        <v>0.2383826174386345</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>337</v>
@@ -7807,19 +7807,19 @@
         <v>237825</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>216083</v>
+        <v>215933</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>261655</v>
+        <v>260163</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2860776210022261</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2599241425369814</v>
+        <v>0.2597442941774604</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3147425913792249</v>
+        <v>0.3129470095904057</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>518</v>
@@ -7828,19 +7828,19 @@
         <v>404171</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>374186</v>
+        <v>372732</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>438155</v>
+        <v>438971</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2480484737027011</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2296458317006524</v>
+        <v>0.2287535394930235</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.26890527799749</v>
+        <v>0.2694058525934144</v>
       </c>
     </row>
     <row r="47">
@@ -7857,19 +7857,19 @@
         <v>226391</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>201582</v>
+        <v>201512</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>254489</v>
+        <v>252137</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.2836726805231209</v>
+        <v>0.283672680523121</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2525867063632841</v>
+        <v>0.2524986265640375</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3188801480860318</v>
+        <v>0.3159329809968277</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>333</v>
@@ -7878,19 +7878,19 @@
         <v>259118</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>237405</v>
+        <v>236016</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>285470</v>
+        <v>284618</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3116909341603831</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2855717837311666</v>
+        <v>0.2839012176060539</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3433891247637195</v>
+        <v>0.3423641401234389</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>556</v>
@@ -7899,19 +7899,19 @@
         <v>485510</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>449461</v>
+        <v>450083</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>521630</v>
+        <v>522844</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2979677631211752</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2758441179312104</v>
+        <v>0.2762258074431579</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3201356818259768</v>
+        <v>0.3208804374582487</v>
       </c>
     </row>
     <row r="48">
@@ -7928,19 +7928,19 @@
         <v>280286</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>251202</v>
+        <v>253139</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>309922</v>
+        <v>308194</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3512038165698015</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3147606931413411</v>
+        <v>0.3171882368420411</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.388338713597392</v>
+        <v>0.3861737899854776</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>319</v>
@@ -7949,19 +7949,19 @@
         <v>266267</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>242971</v>
+        <v>241988</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>292539</v>
+        <v>291667</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.3202897705402852</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2922676905669802</v>
+        <v>0.2910848402482118</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3518918319105584</v>
+        <v>0.3508435186066286</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>578</v>
@@ -7970,19 +7970,19 @@
         <v>546553</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>512299</v>
+        <v>507584</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>587303</v>
+        <v>587282</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3354312831652118</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3144087694723623</v>
+        <v>0.3115155533423917</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3604405466269649</v>
+        <v>0.3604277129295073</v>
       </c>
     </row>
     <row r="49">
@@ -7999,19 +7999,19 @@
         <v>110061</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>87003</v>
+        <v>89342</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>132872</v>
+        <v>135143</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1379084025984314</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1090165340562279</v>
+        <v>0.1119470777790613</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1664918585483052</v>
+        <v>0.1693369198555089</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>69</v>
@@ -8020,19 +8020,19 @@
         <v>63746</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>49093</v>
+        <v>50503</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>80540</v>
+        <v>81273</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.07667958807858556</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.05905376039506978</v>
+        <v>0.06074987635507667</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.09688021352835095</v>
+        <v>0.09776236426411017</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>157</v>
@@ -8041,19 +8041,19 @@
         <v>173807</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>147808</v>
+        <v>147479</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>200511</v>
+        <v>200961</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1066690908171256</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.09071294411334428</v>
+        <v>0.09051098920844525</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1230576878146329</v>
+        <v>0.1233343677346832</v>
       </c>
     </row>
     <row r="50">
@@ -8070,19 +8070,19 @@
         <v>14988</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>7203</v>
+        <v>7419</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>26515</v>
+        <v>26573</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.01878063420135407</v>
+        <v>0.01878063420135406</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.009025610736862456</v>
+        <v>0.009296401869887219</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.03322358453764741</v>
+        <v>0.03329703341984142</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>4</v>
@@ -8091,19 +8091,19 @@
         <v>4375</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1428</v>
+        <v>1489</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>13359</v>
+        <v>12597</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.00526208621852008</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.001717331167578483</v>
+        <v>0.001790641573711465</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.01606897785565769</v>
+        <v>0.01515317693102341</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>15</v>
@@ -8112,19 +8112,19 @@
         <v>19363</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>10800</v>
+        <v>11268</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>32863</v>
+        <v>31925</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.0118833891937864</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.006628495574353944</v>
+        <v>0.00691562356213639</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.0201688663312177</v>
+        <v>0.01959289167051618</v>
       </c>
     </row>
     <row r="51">
@@ -8216,19 +8216,19 @@
         <v>920049</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>866279</v>
+        <v>870247</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>972543</v>
+        <v>976781</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.2607347003210653</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.2454966690308813</v>
+        <v>0.2466212361646926</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2756109251459699</v>
+        <v>0.2768118806199218</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>2109</v>
@@ -8237,19 +8237,19 @@
         <v>1283169</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>1234476</v>
+        <v>1235415</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>1337713</v>
+        <v>1332650</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.3444232161355078</v>
+        <v>0.3444232161355077</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.3313531734697762</v>
+        <v>0.3316052080049433</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.3590636482107268</v>
+        <v>0.3577046043722024</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>3185</v>
@@ -8258,19 +8258,19 @@
         <v>2203219</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>2130243</v>
+        <v>2128942</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>2279258</v>
+        <v>2276904</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.3037146102274753</v>
+        <v>0.3037146102274754</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.2936549486207495</v>
+        <v>0.2934754890713158</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.3141966202053644</v>
+        <v>0.3138721234903977</v>
       </c>
     </row>
     <row r="53">
@@ -8287,19 +8287,19 @@
         <v>1379694</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1320963</v>
+        <v>1314325</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1443705</v>
+        <v>1446314</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.3909943760408126</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.3743503835075585</v>
+        <v>0.3724691905306807</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.4091345359845913</v>
+        <v>0.4098740225599607</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>2077</v>
@@ -8308,19 +8308,19 @@
         <v>1460178</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>1411550</v>
+        <v>1406757</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>1517239</v>
+        <v>1513970</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.3919353052191622</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.3788825988120009</v>
+        <v>0.3775961005706415</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.4072513876834513</v>
+        <v>0.4063737300462303</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>3392</v>
@@ -8329,19 +8329,19 @@
         <v>2839873</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>2753831</v>
+        <v>2760130</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>2921994</v>
+        <v>2925858</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.3914776090258908</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.3796167827980209</v>
+        <v>0.380485053854289</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.4027981478542629</v>
+        <v>0.403330694195388</v>
       </c>
     </row>
     <row r="54">
@@ -8358,19 +8358,19 @@
         <v>965159</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>911125</v>
+        <v>900257</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1026917</v>
+        <v>1031445</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2735185497675039</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2582055680303896</v>
+        <v>0.2551257176483026</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2910201676234563</v>
+        <v>0.2923034443847444</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>1006</v>
@@ -8379,19 +8379,19 @@
         <v>837836</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>788409</v>
+        <v>787645</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>886935</v>
+        <v>886600</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.2248886167343479</v>
+        <v>0.2248886167343478</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2116215881282599</v>
+        <v>0.2114166384948405</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2380674965910909</v>
+        <v>0.2379777091844666</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1789</v>
@@ -8400,19 +8400,19 @@
         <v>1802995</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>1724803</v>
+        <v>1723515</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>1887028</v>
+        <v>1884755</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2485436757339618</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2377648427067661</v>
+        <v>0.2375873139568923</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2601276179664405</v>
+        <v>0.2598143114581076</v>
       </c>
     </row>
     <row r="55">
@@ -8429,19 +8429,19 @@
         <v>227382</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>194025</v>
+        <v>192265</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>266394</v>
+        <v>267329</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>0.06443826065997407</v>
+        <v>0.06443826065997409</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.05498521399000175</v>
+        <v>0.05448641664261396</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.07549403445542145</v>
+        <v>0.07575905575100997</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>144</v>
@@ -8450,19 +8450,19 @@
         <v>131262</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>110093</v>
+        <v>109022</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>155816</v>
+        <v>153840</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.03523282406308954</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.02955065575929502</v>
+        <v>0.0292632379281908</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.04182339983232367</v>
+        <v>0.04129305806133043</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>313</v>
@@ -8471,19 +8471,19 @@
         <v>358644</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>315273</v>
+        <v>317587</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>404918</v>
+        <v>403058</v>
       </c>
       <c r="U55" s="6" t="n">
-        <v>0.04943922499187056</v>
+        <v>0.04943922499187055</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.04346051094019831</v>
+        <v>0.04377949167726652</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.05581813880055709</v>
+        <v>0.05556170784499188</v>
       </c>
     </row>
     <row r="56">
@@ -8500,19 +8500,19 @@
         <v>36395</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>23824</v>
+        <v>24193</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>51490</v>
+        <v>51781</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.01031411321064403</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.006751488965446452</v>
+        <v>0.006855978295337424</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.01459198327878657</v>
+        <v>0.01467444744378342</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>14</v>
@@ -8521,19 +8521,19 @@
         <v>13114</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>6784</v>
+        <v>7376</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>21996</v>
+        <v>24862</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.003520037847892551</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.001820935737681776</v>
+        <v>0.001979880631581533</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.005904093920959978</v>
+        <v>0.006673492657280265</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>42</v>
@@ -8542,19 +8542,19 @@
         <v>49509</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>34901</v>
+        <v>35399</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>68255</v>
+        <v>68458</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.006824880020801445</v>
+        <v>0.006824880020801444</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.004811113188083626</v>
+        <v>0.004879817470543998</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.0094089856250461</v>
+        <v>0.009436912887289721</v>
       </c>
     </row>
     <row r="57">
